--- a/public/images/BBEDATA.xlsx
+++ b/public/images/BBEDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mam/MAM_Dev/empapps-api/public/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB66CEA-B43B-F44E-B4C9-B123D2CFF131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0280ED73-06D0-9047-BA10-AE1596EC0192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{694DB8A2-AD3C-E446-A604-2B5C0C07153F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8103" uniqueCount="4333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8091" uniqueCount="4334">
   <si>
     <t>SUBANI</t>
   </si>
@@ -13037,6 +13037,9 @@
   </si>
   <si>
     <t>0812-5036-6613</t>
+  </si>
+  <si>
+    <t>JKG</t>
   </si>
 </sst>
 </file>
@@ -13445,8 +13448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE65C5AB-52A9-4C45-8F10-373E8704FE35}">
   <dimension ref="A1:Q989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
+      <selection activeCell="J790" sqref="J790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49918,44 +49921,8 @@
       <c r="Q810" s="1"/>
     </row>
     <row r="811" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A811" t="s">
-        <v>1620</v>
-      </c>
       <c r="B811" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C811" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D811" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E811" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F811" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G811" t="s">
-        <v>1626</v>
-      </c>
-      <c r="H811" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I811" t="s">
-        <v>1628</v>
-      </c>
-      <c r="J811" t="s">
-        <v>1629</v>
-      </c>
-      <c r="K811" t="s">
-        <v>1630</v>
-      </c>
-      <c r="L811" t="s">
-        <v>1631</v>
-      </c>
-      <c r="M811" t="s">
-        <v>3374</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="812" spans="1:17" x14ac:dyDescent="0.2">
